--- a/asset/data.xlsx
+++ b/asset/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Account</t>
   </si>
@@ -43,10 +43,7 @@
     <t>#dragon_ball</t>
   </si>
   <si>
-    <t>asset/videos/11.mp4</t>
-  </si>
-  <si>
-    <t>asset/videos/12.mp4</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -117,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -128,20 +125,26 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,15 +454,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,14 +475,14 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -493,7 +496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -501,39 +504,35 @@
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
